--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A25727-F24A-40AF-8971-DB0EF47C37A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98F1A26-03A7-4922-B7B1-A4ACB5B3F021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="1" r:id="rId1"/>
-    <sheet name="description" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad1" sheetId="3" r:id="rId2"/>
+    <sheet name="description" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="255">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -498,6 +499,312 @@
   </si>
   <si>
     <t>levels if the variable is a factor (in wide format)</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>duodenum</t>
+  </si>
+  <si>
+    <t>emulsion</t>
+  </si>
+  <si>
+    <t>forage</t>
+  </si>
+  <si>
+    <t>in_vitro_abomasum_small_intestine</t>
+  </si>
+  <si>
+    <t>in_vitro_rumen</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>omasal</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>rumen</t>
+  </si>
+  <si>
+    <t>sab</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>soluble_crude_protein</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>extract</t>
+  </si>
+  <si>
+    <t>lyo</t>
+  </si>
+  <si>
+    <t>autoclaved</t>
+  </si>
+  <si>
+    <t>cm_methyl_2</t>
+  </si>
+  <si>
+    <t>adf_dry_lignin_1</t>
+  </si>
+  <si>
+    <t>apple_ppo_3</t>
+  </si>
+  <si>
+    <t>cm_sep_spe_2</t>
+  </si>
+  <si>
+    <t>cm_sep_tlc_1</t>
+  </si>
+  <si>
+    <t>fat_methyl_1</t>
+  </si>
+  <si>
+    <t>feed_dry_adf_1</t>
+  </si>
+  <si>
+    <t>feed_dry_crudefiber_1</t>
+  </si>
+  <si>
+    <t>feed_dry_extract_1</t>
+  </si>
+  <si>
+    <t>feed_dry_fat_1</t>
+  </si>
+  <si>
+    <t>feed_dry_n_1</t>
+  </si>
+  <si>
+    <t>feed_dry_ndf_1</t>
+  </si>
+  <si>
+    <t>feed_fresh_dm_and_ash_1</t>
+  </si>
+  <si>
+    <t>feed_fresh_extract_1</t>
+  </si>
+  <si>
+    <t>feed_laca_1</t>
+  </si>
+  <si>
+    <t>feed_lyo_dt_1</t>
+  </si>
+  <si>
+    <t>feed_vfa_and_eba_1</t>
+  </si>
+  <si>
+    <t>feed_vfa_minus_eba_1</t>
+  </si>
+  <si>
+    <t>milk_fresh_extract_2</t>
+  </si>
+  <si>
+    <t>milk_fresh_extract_3</t>
+  </si>
+  <si>
+    <t>milk_fresh_extract_4</t>
+  </si>
+  <si>
+    <t>milk_lyo_extract_1</t>
+  </si>
+  <si>
+    <t>milk_methyl_1</t>
+  </si>
+  <si>
+    <t>milk_methyl_2</t>
+  </si>
+  <si>
+    <t>oil_tba_1</t>
+  </si>
+  <si>
+    <t>plasma_fresh_dt_1</t>
+  </si>
+  <si>
+    <t>plasma_fresh_extract_1</t>
+  </si>
+  <si>
+    <t>plasma_sep_spe_1</t>
+  </si>
+  <si>
+    <t>protein_extract_1</t>
+  </si>
+  <si>
+    <t>rumen_fresh_extract_1</t>
+  </si>
+  <si>
+    <t>rumen_fresh_extract_2</t>
+  </si>
+  <si>
+    <t>rumen_fresh_extract_3</t>
+  </si>
+  <si>
+    <t>rumen_lyo_dt_1</t>
+  </si>
+  <si>
+    <t>rumen_lyo_dt_2</t>
+  </si>
+  <si>
+    <t>rumen_nh3_n_1</t>
+  </si>
+  <si>
+    <t>rumen_vfa_1</t>
+  </si>
+  <si>
+    <t>urine_allantoin_1</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>unknown_location</t>
+  </si>
+  <si>
+    <t>minus_80c</t>
+  </si>
+  <si>
+    <t>fridge_incub_lab</t>
+  </si>
+  <si>
+    <t>freezer_incub_lab</t>
+  </si>
+  <si>
+    <t>fridge_chem_lab</t>
+  </si>
+  <si>
+    <t>freezer_chem_lab</t>
+  </si>
+  <si>
+    <t>fridge_basement</t>
+  </si>
+  <si>
+    <t>freezer_basement</t>
+  </si>
+  <si>
+    <t>rt_incub_lab</t>
+  </si>
+  <si>
+    <t>rt_chem_lab</t>
+  </si>
+  <si>
+    <t>not_stored</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>gc_method</t>
+  </si>
+  <si>
+    <t>batch_incub_6</t>
+  </si>
+  <si>
+    <t>batch_duo_fa_1</t>
+  </si>
+  <si>
+    <t>batch_duo_fa_2</t>
+  </si>
+  <si>
+    <t>batch_duo_fa_3</t>
+  </si>
+  <si>
+    <t>batch_duo_fa_4</t>
+  </si>
+  <si>
+    <t>batch_duo_fa_5</t>
+  </si>
+  <si>
+    <t>batch_duo_fa_6</t>
+  </si>
+  <si>
+    <t>batch_duo_fa_7</t>
+  </si>
+  <si>
+    <t>batch_rum_duo_1</t>
+  </si>
+  <si>
+    <t>batch_rum_duo_2</t>
+  </si>
+  <si>
+    <t>batch_rum_duo_3</t>
+  </si>
+  <si>
+    <t>incubation_protocol</t>
+  </si>
+  <si>
+    <t>long_1_25</t>
+  </si>
+  <si>
+    <t>long_1_30</t>
+  </si>
+  <si>
+    <t>long_1_50</t>
+  </si>
+  <si>
+    <t>short_05_100</t>
+  </si>
+  <si>
+    <t>short_05_50</t>
+  </si>
+  <si>
+    <t>short_07_75</t>
+  </si>
+  <si>
+    <t>short_1_100</t>
+  </si>
+  <si>
+    <t>short_1_25</t>
+  </si>
+  <si>
+    <t>short_1_50</t>
+  </si>
+  <si>
+    <t>short_2_25</t>
+  </si>
+  <si>
+    <t>vfa_dmso</t>
+  </si>
+  <si>
+    <t>vfa_glycerol</t>
+  </si>
+  <si>
+    <t>vfa_oct22</t>
+  </si>
+  <si>
+    <t>vfa_sept12</t>
+  </si>
+  <si>
+    <t>lab protocol</t>
+  </si>
+  <si>
+    <t>storage place of the sample</t>
+  </si>
+  <si>
+    <t>protocol of gas chromatography</t>
+  </si>
+  <si>
+    <t>protocol of incubation</t>
   </si>
 </sst>
 </file>
@@ -1780,18 +2087,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB7"/>
+  <dimension ref="A1:DB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -2211,6 +2518,57 @@
       <c r="O4" t="s">
         <v>134</v>
       </c>
+      <c r="P4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" t="s">
+        <v>156</v>
+      </c>
+      <c r="T4" t="s">
+        <v>157</v>
+      </c>
+      <c r="U4" t="s">
+        <v>158</v>
+      </c>
+      <c r="V4" t="s">
+        <v>159</v>
+      </c>
+      <c r="W4" t="s">
+        <v>160</v>
+      </c>
+      <c r="X4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" spans="1:106">
       <c r="A5" t="s">
@@ -2258,10 +2616,22 @@
         <v>117</v>
       </c>
       <c r="G6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" t="s">
         <v>136</v>
       </c>
-      <c r="H6" t="s">
-        <v>137</v>
+      <c r="K6" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:106">
@@ -2282,6 +2652,293 @@
       </c>
       <c r="F7" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:106">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N8" t="s">
+        <v>181</v>
+      </c>
+      <c r="O8" t="s">
+        <v>182</v>
+      </c>
+      <c r="P8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>184</v>
+      </c>
+      <c r="R8" t="s">
+        <v>185</v>
+      </c>
+      <c r="S8" t="s">
+        <v>186</v>
+      </c>
+      <c r="T8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U8" t="s">
+        <v>188</v>
+      </c>
+      <c r="V8" t="s">
+        <v>189</v>
+      </c>
+      <c r="W8" t="s">
+        <v>190</v>
+      </c>
+      <c r="X8" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:106">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" t="s">
+        <v>216</v>
+      </c>
+      <c r="L9" t="s">
+        <v>217</v>
+      </c>
+      <c r="M9" t="s">
+        <v>218</v>
+      </c>
+      <c r="N9" t="s">
+        <v>219</v>
+      </c>
+      <c r="O9" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:106">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I10" t="s">
+        <v>239</v>
+      </c>
+      <c r="J10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K10" t="s">
+        <v>241</v>
+      </c>
+      <c r="L10" t="s">
+        <v>242</v>
+      </c>
+      <c r="M10" t="s">
+        <v>243</v>
+      </c>
+      <c r="N10" t="s">
+        <v>244</v>
+      </c>
+      <c r="O10" t="s">
+        <v>245</v>
+      </c>
+      <c r="P10" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>247</v>
+      </c>
+      <c r="R10" t="s">
+        <v>248</v>
+      </c>
+      <c r="S10" t="s">
+        <v>249</v>
+      </c>
+      <c r="T10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:106">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" t="s">
+        <v>227</v>
+      </c>
+      <c r="J11" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N11" t="s">
+        <v>232</v>
+      </c>
+      <c r="O11" t="s">
+        <v>233</v>
+      </c>
+      <c r="P11" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2299,13 +2956,13 @@
           <x14:formula1>
             <xm:f>description!$E$6:$H$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C7</xm:sqref>
+          <xm:sqref>C2:C11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AA43B74-602F-42D3-8C41-9A5E92E4A78B}">
           <x14:formula1>
             <xm:f>description!$E$7:$H$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D7</xm:sqref>
+          <xm:sqref>D2:D11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2314,11 +2971,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE16119-78B8-46D9-940C-ADB0B00FB110}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:U5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D4BA7-81A7-496D-83F7-4CE2A3B40B1B}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98F1A26-03A7-4922-B7B1-A4ACB5B3F021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B87C5B-C362-44F4-B0E8-F7E0D92ED912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad1" sheetId="3" r:id="rId2"/>
-    <sheet name="description" sheetId="2" r:id="rId3"/>
+    <sheet name="description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="259">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -805,6 +804,18 @@
   </si>
   <si>
     <t>protocol of incubation</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>GC method</t>
+  </si>
+  <si>
+    <t>Incubation protocol</t>
   </si>
 </sst>
 </file>
@@ -2089,11 +2100,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
   <dimension ref="A1:DB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2658,6 +2669,9 @@
       <c r="A8" t="s">
         <v>211</v>
       </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -2786,6 +2800,9 @@
       <c r="A9" t="s">
         <v>223</v>
       </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -2836,6 +2853,9 @@
       <c r="A10" t="s">
         <v>224</v>
       </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -2894,6 +2914,9 @@
     <row r="11" spans="1:106">
       <c r="A11" t="s">
         <v>236</v>
+      </c>
+      <c r="B11" t="s">
+        <v>258</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -2971,25 +2994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE16119-78B8-46D9-940C-ADB0B00FB110}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:U5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D4BA7-81A7-496D-83F7-4CE2A3B40B1B}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
